--- a/raw data_files/Alk Data_corrections_ALL.xlsx
+++ b/raw data_files/Alk Data_corrections_ALL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alishamsaley/Documents/Pred_Prey OA Pilots/TF_CP3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alishamsaley/Documents/GitHub/TF_CP3/raw data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EF3520-A267-0540-9978-4F9BF2F97E7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6151A4AD-EB05-D444-8EF7-AC464E00F070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6640" yWindow="460" windowWidth="30140" windowHeight="21560" activeTab="3" xr2:uid="{50C2140D-E34B-6A48-9130-9AF0A986BADD}"/>
+    <workbookView xWindow="80" yWindow="1100" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{50C2140D-E34B-6A48-9130-9AF0A986BADD}"/>
   </bookViews>
   <sheets>
     <sheet name="a-e" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3911,7 +3914,7 @@
   <dimension ref="A1:R710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40133,7 +40136,7 @@
   <dimension ref="A1:C631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46043,7 +46046,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46664,7 +46667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3574E3-5E81-4F47-AF25-10099EE2DD8C}">
   <dimension ref="A1:F211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
